--- a/tiens_ys/excel_allure_interface/data/demoe.xlsx
+++ b/tiens_ys/excel_allure_interface/data/demoe.xlsx
@@ -1256,9 +1256,9 @@
   <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1697,9 +1697,7 @@
       <c r="M7" s="0" t="n"/>
     </row>
     <row r="8" ht="28" customHeight="1" s="1">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
+      <c r="A8" s="0" t="n"/>
       <c r="B8" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -1759,9 +1757,7 @@
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" s="1">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
+      <c r="A9" s="0" t="n"/>
       <c r="B9" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -1816,9 +1812,7 @@
       <c r="M9" s="0" t="n"/>
     </row>
     <row r="10" ht="28" customHeight="1" s="1">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
+      <c r="A10" s="0" t="n"/>
       <c r="B10" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -1873,9 +1867,7 @@
       <c r="M10" s="0" t="n"/>
     </row>
     <row r="11" ht="42" customHeight="1" s="1">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
+      <c r="A11" s="0" t="n"/>
       <c r="B11" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -1928,9 +1920,7 @@
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" s="1">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
+      <c r="A12" s="0" t="n"/>
       <c r="B12" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -1985,9 +1975,7 @@
       <c r="M12" s="0" t="n"/>
     </row>
     <row r="13" ht="28" customHeight="1" s="1">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="A13" s="0" t="n"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2042,9 +2030,7 @@
       <c r="M13" s="0" t="n"/>
     </row>
     <row r="14" ht="28" customHeight="1" s="1">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="A14" s="0" t="n"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2104,9 +2090,7 @@
       </c>
     </row>
     <row r="15" ht="28" customHeight="1" s="1">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
+      <c r="A15" s="0" t="n"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2169,9 +2153,7 @@
       </c>
     </row>
     <row r="16" ht="28" customHeight="1" s="1">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
+      <c r="A16" s="0" t="n"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2224,9 +2206,7 @@
       </c>
     </row>
     <row r="17" ht="28" customHeight="1" s="1">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="A17" s="0" t="n"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2279,9 +2259,7 @@
       </c>
     </row>
     <row r="18" ht="28" customHeight="1" s="1">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
+      <c r="A18" s="0" t="n"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2334,9 +2312,7 @@
       </c>
     </row>
     <row r="19" ht="28" customHeight="1" s="1">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
+      <c r="A19" s="0" t="n"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2389,9 +2365,7 @@
       </c>
     </row>
     <row r="20" ht="28" customHeight="1" s="1">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
+      <c r="A20" s="0" t="n"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2444,9 +2418,7 @@
       </c>
     </row>
     <row r="21" ht="28" customHeight="1" s="1">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
+      <c r="A21" s="0" t="n"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2499,9 +2471,7 @@
       </c>
     </row>
     <row r="22" ht="28" customHeight="1" s="1">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
+      <c r="A22" s="0" t="n"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2554,9 +2524,7 @@
       </c>
     </row>
     <row r="23" ht="28" customHeight="1" s="1">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
+      <c r="A23" s="0" t="n"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2609,9 +2577,7 @@
       </c>
     </row>
     <row r="24" ht="28" customHeight="1" s="1">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
+      <c r="A24" s="0" t="n"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2664,9 +2630,7 @@
       </c>
     </row>
     <row r="25" ht="28" customHeight="1" s="1">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
+      <c r="A25" s="0" t="n"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2719,9 +2683,7 @@
       </c>
     </row>
     <row r="26" ht="28" customHeight="1" s="1">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
-      </c>
+      <c r="A26" s="0" t="n"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2774,9 +2736,7 @@
       </c>
     </row>
     <row r="27" ht="28" customHeight="1" s="1">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
+      <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2829,9 +2789,7 @@
       </c>
     </row>
     <row r="28" ht="28" customHeight="1" s="1">
-      <c r="A28" s="0" t="n">
-        <v>27</v>
-      </c>
+      <c r="A28" s="0" t="n"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2884,9 +2842,7 @@
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" s="1">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
-      </c>
+      <c r="A29" s="0" t="n"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2939,9 +2895,7 @@
       </c>
     </row>
     <row r="30" ht="28" customHeight="1" s="1">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
-      </c>
+      <c r="A30" s="0" t="n"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -2994,9 +2948,7 @@
       </c>
     </row>
     <row r="31" ht="28" customHeight="1" s="1">
-      <c r="A31" s="0" t="n">
-        <v>30</v>
-      </c>
+      <c r="A31" s="0" t="n"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3049,9 +3001,7 @@
       </c>
     </row>
     <row r="32" ht="28" customHeight="1" s="1">
-      <c r="A32" s="0" t="n">
-        <v>31</v>
-      </c>
+      <c r="A32" s="0" t="n"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3104,9 +3054,7 @@
       </c>
     </row>
     <row r="33" ht="28" customHeight="1" s="1">
-      <c r="A33" s="0" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="0" t="n"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3159,9 +3107,7 @@
       </c>
     </row>
     <row r="34" ht="28" customHeight="1" s="1">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
-      </c>
+      <c r="A34" s="0" t="n"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3214,9 +3160,7 @@
       </c>
     </row>
     <row r="35" ht="28" customHeight="1" s="1">
-      <c r="A35" s="0" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="0" t="n"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3269,9 +3213,7 @@
       </c>
     </row>
     <row r="36" ht="28" customHeight="1" s="1">
-      <c r="A36" s="0" t="n">
-        <v>35</v>
-      </c>
+      <c r="A36" s="0" t="n"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3324,9 +3266,7 @@
       </c>
     </row>
     <row r="37" ht="28" customHeight="1" s="1">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
-      </c>
+      <c r="A37" s="0" t="n"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3379,9 +3319,7 @@
       </c>
     </row>
     <row r="38" ht="28" customHeight="1" s="1">
-      <c r="A38" s="0" t="n">
-        <v>37</v>
-      </c>
+      <c r="A38" s="0" t="n"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3434,9 +3372,7 @@
       </c>
     </row>
     <row r="39" ht="28" customHeight="1" s="1">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
-      </c>
+      <c r="A39" s="0" t="n"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3489,9 +3425,7 @@
       </c>
     </row>
     <row r="40" ht="28" customHeight="1" s="1">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
-      </c>
+      <c r="A40" s="0" t="n"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3549,9 +3483,7 @@
       </c>
     </row>
     <row r="41" ht="28" customHeight="1" s="1">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
+      <c r="A41" s="0" t="n"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3604,9 +3536,7 @@
       </c>
     </row>
     <row r="42" ht="28" customHeight="1" s="1">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="0" t="n"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3669,9 +3599,7 @@
       </c>
     </row>
     <row r="43" ht="28" customHeight="1" s="1">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="0" t="n"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3726,9 +3654,7 @@
       <c r="M43" s="0" t="n"/>
     </row>
     <row r="44" ht="28" customHeight="1" s="1">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="0" t="n"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3791,9 +3717,7 @@
       </c>
     </row>
     <row r="45" ht="28" customHeight="1" s="1">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="0" t="n"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3846,9 +3770,7 @@
       </c>
     </row>
     <row r="46" ht="28" customHeight="1" s="1">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="0" t="n"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3903,9 +3825,7 @@
       <c r="M46" s="0" t="n"/>
     </row>
     <row r="47" ht="28" customHeight="1" s="1">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="0" t="n"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -3968,9 +3888,7 @@
       </c>
     </row>
     <row r="48" ht="28" customHeight="1" s="1">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="0" t="n"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4023,9 +3941,7 @@
       </c>
     </row>
     <row r="49" ht="24" customHeight="1" s="1">
-      <c r="A49" s="0" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="0" t="n"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4078,9 +3994,7 @@
       </c>
     </row>
     <row r="50" ht="28" customHeight="1" s="1">
-      <c r="A50" s="0" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="0" t="n"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4143,9 +4057,7 @@
       </c>
     </row>
     <row r="51" ht="70" customHeight="1" s="1">
-      <c r="A51" s="0" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="0" t="n"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4198,9 +4110,7 @@
       </c>
     </row>
     <row r="52" ht="28" customHeight="1" s="1">
-      <c r="A52" s="0" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="0" t="n"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4253,9 +4163,7 @@
       </c>
     </row>
     <row r="53" ht="28" customHeight="1" s="1">
-      <c r="A53" s="0" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="0" t="n"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4318,9 +4226,7 @@
       </c>
     </row>
     <row r="54" ht="28" customHeight="1" s="1">
-      <c r="A54" s="0" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="0" t="n"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4420,9 +4326,7 @@
       </c>
     </row>
     <row r="55" ht="28" customHeight="1" s="1">
-      <c r="A55" s="0" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="0" t="n"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4480,9 +4384,7 @@
       </c>
     </row>
     <row r="56" ht="28" customHeight="1" s="1">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="0" t="n"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4540,9 +4442,7 @@
       </c>
     </row>
     <row r="57" ht="28" customHeight="1" s="1">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="0" t="n"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4600,9 +4500,7 @@
       </c>
     </row>
     <row r="58" ht="28" customHeight="1" s="1">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="0" t="n"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4655,9 +4553,7 @@
       </c>
     </row>
     <row r="59" ht="28" customHeight="1" s="1">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="0" t="n"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4710,9 +4606,7 @@
       </c>
     </row>
     <row r="60" ht="28" customHeight="1" s="1">
-      <c r="A60" s="0" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="0" t="n"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4770,9 +4664,7 @@
       </c>
     </row>
     <row r="61" ht="28" customHeight="1" s="1">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="0" t="n"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4825,9 +4717,7 @@
       </c>
     </row>
     <row r="62" ht="28" customHeight="1" s="1">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="0" t="n"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4880,9 +4770,7 @@
       </c>
     </row>
     <row r="63" ht="28" customHeight="1" s="1">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="0" t="n"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4935,9 +4823,7 @@
       </c>
     </row>
     <row r="64" ht="28" customHeight="1" s="1">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="0" t="n"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -4990,9 +4876,7 @@
       </c>
     </row>
     <row r="65" ht="28" customHeight="1" s="1">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="0" t="n"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5045,9 +4929,7 @@
       </c>
     </row>
     <row r="66" ht="28" customHeight="1" s="1">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="0" t="n"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5100,9 +4982,7 @@
       </c>
     </row>
     <row r="67" ht="28" customHeight="1" s="1">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="0" t="n"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5155,9 +5035,7 @@
       </c>
     </row>
     <row r="68" ht="28" customHeight="1" s="1">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="0" t="n"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5210,9 +5088,7 @@
       </c>
     </row>
     <row r="69" ht="28" customHeight="1" s="1">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
+      <c r="A69" s="0" t="n"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5265,9 +5141,7 @@
       </c>
     </row>
     <row r="70" ht="28" customHeight="1" s="1">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="0" t="n"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5320,9 +5194,7 @@
       </c>
     </row>
     <row r="71" ht="28" customHeight="1" s="1">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
+      <c r="A71" s="0" t="n"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5375,9 +5247,7 @@
       </c>
     </row>
     <row r="72" ht="28" customHeight="1" s="1">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
-      </c>
+      <c r="A72" s="0" t="n"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5430,9 +5300,7 @@
       </c>
     </row>
     <row r="73" ht="28" customHeight="1" s="1">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
+      <c r="A73" s="0" t="n"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5485,9 +5353,7 @@
       </c>
     </row>
     <row r="74" ht="28" customHeight="1" s="1">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
+      <c r="A74" s="0" t="n"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5540,9 +5406,7 @@
       </c>
     </row>
     <row r="75" ht="28" customHeight="1" s="1">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
+      <c r="A75" s="0" t="n"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5595,9 +5459,7 @@
       </c>
     </row>
     <row r="76" ht="28" customHeight="1" s="1">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
+      <c r="A76" s="0" t="n"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5650,9 +5512,7 @@
       </c>
     </row>
     <row r="77" ht="28" customHeight="1" s="1">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
+      <c r="A77" s="0" t="n"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5705,9 +5565,7 @@
       </c>
     </row>
     <row r="78" ht="28" customHeight="1" s="1">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
-      </c>
+      <c r="A78" s="0" t="n"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5760,9 +5618,7 @@
       </c>
     </row>
     <row r="79" ht="28" customHeight="1" s="1">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
+      <c r="A79" s="0" t="n"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5815,9 +5671,7 @@
       </c>
     </row>
     <row r="80" ht="28" customHeight="1" s="1">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
+      <c r="A80" s="0" t="n"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5870,9 +5724,7 @@
       </c>
     </row>
     <row r="81" ht="28" customHeight="1" s="1">
-      <c r="A81" s="0" t="n">
-        <v>80</v>
-      </c>
+      <c r="A81" s="0" t="n"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5930,9 +5782,7 @@
       </c>
     </row>
     <row r="82" ht="28" customHeight="1" s="1">
-      <c r="A82" s="0" t="n">
-        <v>81</v>
-      </c>
+      <c r="A82" s="0" t="n"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -5990,9 +5840,7 @@
       </c>
     </row>
     <row r="83" ht="28" customHeight="1" s="1">
-      <c r="A83" s="0" t="n">
-        <v>82</v>
-      </c>
+      <c r="A83" s="0" t="n"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6050,9 +5898,7 @@
       </c>
     </row>
     <row r="84" ht="28" customHeight="1" s="1">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
+      <c r="A84" s="0" t="n"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6105,9 +5951,7 @@
       </c>
     </row>
     <row r="85" ht="28" customHeight="1" s="1">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
+      <c r="A85" s="0" t="n"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6160,9 +6004,7 @@
       </c>
     </row>
     <row r="86" ht="28" customHeight="1" s="1">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
+      <c r="A86" s="0" t="n"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6215,9 +6057,7 @@
       </c>
     </row>
     <row r="87" ht="28" customHeight="1" s="1">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
+      <c r="A87" s="0" t="n"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6270,9 +6110,7 @@
       </c>
     </row>
     <row r="88" ht="28" customHeight="1" s="1">
-      <c r="A88" s="0" t="n">
-        <v>87</v>
-      </c>
+      <c r="A88" s="0" t="n"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6325,9 +6163,7 @@
       </c>
     </row>
     <row r="89" ht="28" customHeight="1" s="1">
-      <c r="A89" s="0" t="n">
-        <v>88</v>
-      </c>
+      <c r="A89" s="0" t="n"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6380,9 +6216,7 @@
       </c>
     </row>
     <row r="90" ht="28" customHeight="1" s="1">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
+      <c r="A90" s="0" t="n"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6435,9 +6269,7 @@
       </c>
     </row>
     <row r="91" ht="28" customHeight="1" s="1">
-      <c r="A91" s="0" t="n">
-        <v>90</v>
-      </c>
+      <c r="A91" s="0" t="n"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6490,9 +6322,7 @@
       </c>
     </row>
     <row r="92" ht="28" customHeight="1" s="1">
-      <c r="A92" s="0" t="n">
-        <v>91</v>
-      </c>
+      <c r="A92" s="0" t="n"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6545,9 +6375,7 @@
       </c>
     </row>
     <row r="93" ht="28" customHeight="1" s="1">
-      <c r="A93" s="0" t="n">
-        <v>92</v>
-      </c>
+      <c r="A93" s="0" t="n"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6600,9 +6428,7 @@
       </c>
     </row>
     <row r="94" ht="28" customHeight="1" s="1">
-      <c r="A94" s="0" t="n">
-        <v>93</v>
-      </c>
+      <c r="A94" s="0" t="n"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6655,9 +6481,7 @@
       </c>
     </row>
     <row r="95" ht="28" customHeight="1" s="1">
-      <c r="A95" s="0" t="n">
-        <v>94</v>
-      </c>
+      <c r="A95" s="0" t="n"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6710,9 +6534,7 @@
       </c>
     </row>
     <row r="96" ht="28" customHeight="1" s="1">
-      <c r="A96" s="0" t="n">
-        <v>95</v>
-      </c>
+      <c r="A96" s="0" t="n"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6765,9 +6587,7 @@
       </c>
     </row>
     <row r="97" ht="28" customHeight="1" s="1">
-      <c r="A97" s="0" t="n">
-        <v>96</v>
-      </c>
+      <c r="A97" s="0" t="n"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6820,9 +6640,7 @@
       </c>
     </row>
     <row r="98" ht="28" customHeight="1" s="1">
-      <c r="A98" s="0" t="n">
-        <v>97</v>
-      </c>
+      <c r="A98" s="0" t="n"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6875,9 +6693,7 @@
       </c>
     </row>
     <row r="99" ht="28" customHeight="1" s="1">
-      <c r="A99" s="0" t="n">
-        <v>98</v>
-      </c>
+      <c r="A99" s="0" t="n"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6930,9 +6746,7 @@
       </c>
     </row>
     <row r="100" ht="28" customHeight="1" s="1">
-      <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
+      <c r="A100" s="0" t="n"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -6985,9 +6799,7 @@
       </c>
     </row>
     <row r="101" ht="28" customHeight="1" s="1">
-      <c r="A101" s="0" t="n">
-        <v>100</v>
-      </c>
+      <c r="A101" s="0" t="n"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7040,9 +6852,7 @@
       </c>
     </row>
     <row r="102" ht="28" customHeight="1" s="1">
-      <c r="A102" s="0" t="n">
-        <v>101</v>
-      </c>
+      <c r="A102" s="0" t="n"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7095,9 +6905,7 @@
       </c>
     </row>
     <row r="103" ht="28" customHeight="1" s="1">
-      <c r="A103" s="0" t="n">
-        <v>102</v>
-      </c>
+      <c r="A103" s="0" t="n"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7150,9 +6958,7 @@
       </c>
     </row>
     <row r="104" ht="28" customHeight="1" s="1">
-      <c r="A104" s="0" t="n">
-        <v>103</v>
-      </c>
+      <c r="A104" s="0" t="n"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7205,9 +7011,7 @@
       </c>
     </row>
     <row r="105" ht="70" customHeight="1" s="1">
-      <c r="A105" s="0" t="n">
-        <v>104</v>
-      </c>
+      <c r="A105" s="0" t="n"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7260,9 +7064,7 @@
       </c>
     </row>
     <row r="106" ht="70" customHeight="1" s="1">
-      <c r="A106" s="0" t="n">
-        <v>105</v>
-      </c>
+      <c r="A106" s="0" t="n"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7315,9 +7117,7 @@
       </c>
     </row>
     <row r="107" ht="70" customHeight="1" s="1">
-      <c r="A107" s="0" t="n">
-        <v>106</v>
-      </c>
+      <c r="A107" s="0" t="n"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7370,9 +7170,7 @@
       </c>
     </row>
     <row r="108" ht="28" customHeight="1" s="1">
-      <c r="A108" s="0" t="n">
-        <v>107</v>
-      </c>
+      <c r="A108" s="0" t="n"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7425,9 +7223,7 @@
       </c>
     </row>
     <row r="109" ht="42" customHeight="1" s="1">
-      <c r="A109" s="0" t="n">
-        <v>108</v>
-      </c>
+      <c r="A109" s="0" t="n"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7480,9 +7276,7 @@
       </c>
     </row>
     <row r="110" ht="28" customHeight="1" s="1">
-      <c r="A110" s="0" t="n">
-        <v>109</v>
-      </c>
+      <c r="A110" s="0" t="n"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7535,9 +7329,7 @@
       </c>
     </row>
     <row r="111" ht="28" customHeight="1" s="1">
-      <c r="A111" s="0" t="n">
-        <v>110</v>
-      </c>
+      <c r="A111" s="0" t="n"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7590,9 +7382,7 @@
       </c>
     </row>
     <row r="112" ht="28" customHeight="1" s="1">
-      <c r="A112" s="0" t="n">
-        <v>111</v>
-      </c>
+      <c r="A112" s="0" t="n"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7645,9 +7435,7 @@
       </c>
     </row>
     <row r="113" ht="28" customHeight="1" s="1">
-      <c r="A113" s="0" t="n">
-        <v>112</v>
-      </c>
+      <c r="A113" s="0" t="n"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7710,9 +7498,7 @@
       </c>
     </row>
     <row r="114" ht="28" customHeight="1" s="1">
-      <c r="A114" s="0" t="n">
-        <v>113</v>
-      </c>
+      <c r="A114" s="0" t="n"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7765,9 +7551,7 @@
       </c>
     </row>
     <row r="115" ht="28" customHeight="1" s="1">
-      <c r="A115" s="0" t="n">
-        <v>114</v>
-      </c>
+      <c r="A115" s="0" t="n"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7830,9 +7614,7 @@
       </c>
     </row>
     <row r="116" ht="28" customHeight="1" s="1">
-      <c r="A116" s="0" t="n">
-        <v>115</v>
-      </c>
+      <c r="A116" s="0" t="n"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7885,9 +7667,7 @@
       </c>
     </row>
     <row r="117" ht="28" customHeight="1" s="1">
-      <c r="A117" s="0" t="n">
-        <v>116</v>
-      </c>
+      <c r="A117" s="0" t="n"/>
       <c r="B117" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7940,9 +7720,7 @@
       </c>
     </row>
     <row r="118" ht="28" customHeight="1" s="1">
-      <c r="A118" s="0" t="n">
-        <v>117</v>
-      </c>
+      <c r="A118" s="0" t="n"/>
       <c r="B118" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -7995,9 +7773,7 @@
       </c>
     </row>
     <row r="119" ht="28" customHeight="1" s="1">
-      <c r="A119" s="0" t="n">
-        <v>118</v>
-      </c>
+      <c r="A119" s="0" t="n"/>
       <c r="B119" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8050,9 +7826,7 @@
       </c>
     </row>
     <row r="120" ht="28" customHeight="1" s="1">
-      <c r="A120" s="0" t="n">
-        <v>119</v>
-      </c>
+      <c r="A120" s="0" t="n"/>
       <c r="B120" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8105,9 +7879,7 @@
       </c>
     </row>
     <row r="121" ht="28" customHeight="1" s="1">
-      <c r="A121" s="0" t="n">
-        <v>120</v>
-      </c>
+      <c r="A121" s="0" t="n"/>
       <c r="B121" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8160,9 +7932,7 @@
       </c>
     </row>
     <row r="122" ht="28" customHeight="1" s="1">
-      <c r="A122" s="0" t="n">
-        <v>121</v>
-      </c>
+      <c r="A122" s="0" t="n"/>
       <c r="B122" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8215,9 +7985,7 @@
       </c>
     </row>
     <row r="123" ht="28" customHeight="1" s="1">
-      <c r="A123" s="0" t="n">
-        <v>122</v>
-      </c>
+      <c r="A123" s="0" t="n"/>
       <c r="B123" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8270,9 +8038,7 @@
       </c>
     </row>
     <row r="124" ht="28" customHeight="1" s="1">
-      <c r="A124" s="0" t="n">
-        <v>123</v>
-      </c>
+      <c r="A124" s="0" t="n"/>
       <c r="B124" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8325,9 +8091,7 @@
       </c>
     </row>
     <row r="125" ht="28" customHeight="1" s="1">
-      <c r="A125" s="0" t="n">
-        <v>124</v>
-      </c>
+      <c r="A125" s="0" t="n"/>
       <c r="B125" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8380,9 +8144,7 @@
       </c>
     </row>
     <row r="126" ht="28" customHeight="1" s="1">
-      <c r="A126" s="0" t="n">
-        <v>125</v>
-      </c>
+      <c r="A126" s="0" t="n"/>
       <c r="B126" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8435,9 +8197,7 @@
       </c>
     </row>
     <row r="127" ht="85" customHeight="1" s="1">
-      <c r="A127" s="0" t="n">
-        <v>126</v>
-      </c>
+      <c r="A127" s="0" t="n"/>
       <c r="B127" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8490,9 +8250,7 @@
       </c>
     </row>
     <row r="128" ht="80" customHeight="1" s="1">
-      <c r="A128" s="0" t="n">
-        <v>127</v>
-      </c>
+      <c r="A128" s="0" t="n"/>
       <c r="B128" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8545,9 +8303,7 @@
       </c>
     </row>
     <row r="129" ht="42" customHeight="1" s="1">
-      <c r="A129" s="0" t="n">
-        <v>128</v>
-      </c>
+      <c r="A129" s="0" t="n"/>
       <c r="B129" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8600,9 +8356,7 @@
       </c>
     </row>
     <row r="130" ht="42" customHeight="1" s="1">
-      <c r="A130" s="0" t="n">
-        <v>129</v>
-      </c>
+      <c r="A130" s="0" t="n"/>
       <c r="B130" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8655,9 +8409,7 @@
       </c>
     </row>
     <row r="131" ht="42" customHeight="1" s="1">
-      <c r="A131" s="0" t="n">
-        <v>130</v>
-      </c>
+      <c r="A131" s="0" t="n"/>
       <c r="B131" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8710,9 +8462,7 @@
       </c>
     </row>
     <row r="132" ht="42" customHeight="1" s="1">
-      <c r="A132" s="0" t="n">
-        <v>131</v>
-      </c>
+      <c r="A132" s="0" t="n"/>
       <c r="B132" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8765,9 +8515,7 @@
       </c>
     </row>
     <row r="133" ht="42" customHeight="1" s="1">
-      <c r="A133" s="0" t="n">
-        <v>132</v>
-      </c>
+      <c r="A133" s="0" t="n"/>
       <c r="B133" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8820,9 +8568,7 @@
       </c>
     </row>
     <row r="134" ht="42" customHeight="1" s="1">
-      <c r="A134" s="0" t="n">
-        <v>133</v>
-      </c>
+      <c r="A134" s="0" t="n"/>
       <c r="B134" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8875,9 +8621,7 @@
       </c>
     </row>
     <row r="135" ht="42" customHeight="1" s="1">
-      <c r="A135" s="0" t="n">
-        <v>134</v>
-      </c>
+      <c r="A135" s="0" t="n"/>
       <c r="B135" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8930,9 +8674,7 @@
       </c>
     </row>
     <row r="136" ht="42" customHeight="1" s="1">
-      <c r="A136" s="0" t="n">
-        <v>135</v>
-      </c>
+      <c r="A136" s="0" t="n"/>
       <c r="B136" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -8985,9 +8727,7 @@
       </c>
     </row>
     <row r="137" ht="42" customHeight="1" s="1">
-      <c r="A137" s="0" t="n">
-        <v>136</v>
-      </c>
+      <c r="A137" s="0" t="n"/>
       <c r="B137" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9040,9 +8780,7 @@
       </c>
     </row>
     <row r="138" ht="42" customHeight="1" s="1">
-      <c r="A138" s="0" t="n">
-        <v>137</v>
-      </c>
+      <c r="A138" s="0" t="n"/>
       <c r="B138" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9095,9 +8833,7 @@
       </c>
     </row>
     <row r="139" ht="42" customHeight="1" s="1">
-      <c r="A139" s="0" t="n">
-        <v>138</v>
-      </c>
+      <c r="A139" s="0" t="n"/>
       <c r="B139" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9150,9 +8886,7 @@
       </c>
     </row>
     <row r="140" ht="42" customHeight="1" s="1">
-      <c r="A140" s="0" t="n">
-        <v>139</v>
-      </c>
+      <c r="A140" s="0" t="n"/>
       <c r="B140" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9205,9 +8939,7 @@
       </c>
     </row>
     <row r="141" ht="42" customHeight="1" s="1">
-      <c r="A141" s="0" t="n">
-        <v>140</v>
-      </c>
+      <c r="A141" s="0" t="n"/>
       <c r="B141" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9260,9 +8992,7 @@
       </c>
     </row>
     <row r="142" ht="42" customHeight="1" s="1">
-      <c r="A142" s="0" t="n">
-        <v>141</v>
-      </c>
+      <c r="A142" s="0" t="n"/>
       <c r="B142" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9315,9 +9045,7 @@
       </c>
     </row>
     <row r="143" ht="42" customHeight="1" s="1">
-      <c r="A143" s="0" t="n">
-        <v>142</v>
-      </c>
+      <c r="A143" s="0" t="n"/>
       <c r="B143" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9370,9 +9098,7 @@
       </c>
     </row>
     <row r="144" ht="42" customHeight="1" s="1">
-      <c r="A144" s="0" t="n">
-        <v>143</v>
-      </c>
+      <c r="A144" s="0" t="n"/>
       <c r="B144" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9425,9 +9151,7 @@
       </c>
     </row>
     <row r="145" ht="42" customHeight="1" s="1">
-      <c r="A145" s="0" t="n">
-        <v>144</v>
-      </c>
+      <c r="A145" s="0" t="n"/>
       <c r="B145" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9480,9 +9204,7 @@
       </c>
     </row>
     <row r="146" ht="42" customHeight="1" s="1">
-      <c r="A146" s="0" t="n">
-        <v>145</v>
-      </c>
+      <c r="A146" s="0" t="n"/>
       <c r="B146" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9535,9 +9257,7 @@
       </c>
     </row>
     <row r="147" ht="42" customHeight="1" s="1">
-      <c r="A147" s="0" t="n">
-        <v>146</v>
-      </c>
+      <c r="A147" s="0" t="n"/>
       <c r="B147" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9590,9 +9310,7 @@
       </c>
     </row>
     <row r="148" ht="42" customHeight="1" s="1">
-      <c r="A148" s="0" t="n">
-        <v>147</v>
-      </c>
+      <c r="A148" s="0" t="n"/>
       <c r="B148" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9645,9 +9363,7 @@
       </c>
     </row>
     <row r="149" ht="42" customHeight="1" s="1">
-      <c r="A149" s="0" t="n">
-        <v>148</v>
-      </c>
+      <c r="A149" s="0" t="n"/>
       <c r="B149" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9700,9 +9416,7 @@
       </c>
     </row>
     <row r="150" ht="42" customHeight="1" s="1">
-      <c r="A150" s="0" t="n">
-        <v>149</v>
-      </c>
+      <c r="A150" s="0" t="n"/>
       <c r="B150" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9755,9 +9469,7 @@
       </c>
     </row>
     <row r="151" ht="42" customHeight="1" s="1">
-      <c r="A151" s="0" t="n">
-        <v>150</v>
-      </c>
+      <c r="A151" s="0" t="n"/>
       <c r="B151" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9810,9 +9522,7 @@
       </c>
     </row>
     <row r="152" ht="42" customHeight="1" s="1">
-      <c r="A152" s="0" t="n">
-        <v>151</v>
-      </c>
+      <c r="A152" s="0" t="n"/>
       <c r="B152" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9865,9 +9575,7 @@
       </c>
     </row>
     <row r="153" ht="42" customHeight="1" s="1">
-      <c r="A153" s="0" t="n">
-        <v>152</v>
-      </c>
+      <c r="A153" s="0" t="n"/>
       <c r="B153" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9920,9 +9628,7 @@
       </c>
     </row>
     <row r="154" ht="42" customHeight="1" s="1">
-      <c r="A154" s="0" t="n">
-        <v>153</v>
-      </c>
+      <c r="A154" s="0" t="n"/>
       <c r="B154" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -9975,9 +9681,7 @@
       </c>
     </row>
     <row r="155" ht="42" customHeight="1" s="1">
-      <c r="A155" s="0" t="n">
-        <v>154</v>
-      </c>
+      <c r="A155" s="0" t="n"/>
       <c r="B155" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10030,9 +9734,7 @@
       </c>
     </row>
     <row r="156" ht="42" customHeight="1" s="1">
-      <c r="A156" s="0" t="n">
-        <v>155</v>
-      </c>
+      <c r="A156" s="0" t="n"/>
       <c r="B156" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10085,9 +9787,7 @@
       </c>
     </row>
     <row r="157" ht="42" customHeight="1" s="1">
-      <c r="A157" s="0" t="n">
-        <v>156</v>
-      </c>
+      <c r="A157" s="0" t="n"/>
       <c r="B157" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10140,9 +9840,7 @@
       </c>
     </row>
     <row r="158" ht="56" customHeight="1" s="1">
-      <c r="A158" s="0" t="n">
-        <v>157</v>
-      </c>
+      <c r="A158" s="0" t="n"/>
       <c r="B158" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10195,9 +9893,7 @@
       </c>
     </row>
     <row r="159" ht="84" customHeight="1" s="1">
-      <c r="A159" s="0" t="n">
-        <v>158</v>
-      </c>
+      <c r="A159" s="0" t="n"/>
       <c r="B159" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10250,9 +9946,7 @@
       </c>
     </row>
     <row r="160" ht="42" customHeight="1" s="1">
-      <c r="A160" s="0" t="n">
-        <v>159</v>
-      </c>
+      <c r="A160" s="0" t="n"/>
       <c r="B160" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10315,9 +10009,7 @@
       </c>
     </row>
     <row r="161" ht="42" customHeight="1" s="1">
-      <c r="A161" s="0" t="n">
-        <v>160</v>
-      </c>
+      <c r="A161" s="0" t="n"/>
       <c r="B161" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10370,9 +10062,7 @@
       </c>
     </row>
     <row r="162" ht="42" customHeight="1" s="1">
-      <c r="A162" s="0" t="n">
-        <v>161</v>
-      </c>
+      <c r="A162" s="0" t="n"/>
       <c r="B162" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10425,9 +10115,7 @@
       </c>
     </row>
     <row r="163" ht="42" customHeight="1" s="1">
-      <c r="A163" s="0" t="n">
-        <v>162</v>
-      </c>
+      <c r="A163" s="0" t="n"/>
       <c r="B163" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10480,9 +10168,7 @@
       </c>
     </row>
     <row r="164" ht="42" customHeight="1" s="1">
-      <c r="A164" s="0" t="n">
-        <v>163</v>
-      </c>
+      <c r="A164" s="0" t="n"/>
       <c r="B164" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10535,9 +10221,7 @@
       </c>
     </row>
     <row r="165" ht="42" customHeight="1" s="1">
-      <c r="A165" s="0" t="n">
-        <v>164</v>
-      </c>
+      <c r="A165" s="0" t="n"/>
       <c r="B165" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
@@ -10590,9 +10274,7 @@
       </c>
     </row>
     <row r="166" ht="42" customHeight="1" s="1">
-      <c r="A166" s="0" t="n">
-        <v>165</v>
-      </c>
+      <c r="A166" s="0" t="n"/>
       <c r="B166" s="0" t="inlineStr">
         <is>
           <t>https://admin-yszx-dev2.tiens.com</t>
